--- a/exports/xlsx/terms_definition_2.xlsx
+++ b/exports/xlsx/terms_definition_2.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,37 +422,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>term</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>tags</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>synonyms</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>definition</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>examples</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>sources</t>
         </is>
@@ -473,150 +461,150 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Baseline</t>
+          <t>Uncertainty</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Source data that has been processed to a common set of requirements and organised into a form that allows immediate analysis and interoperability through time and with other collections.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>Non-negative parameter, associated with Data, which characterizes the dispersion of the values of a [Trait ]that could reasonably be attributed to a Phenomenon [by means of sensing or modelling].</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>- In case of quantitative(continuous) Data the uncertainty may be, for example, a standard deviation (or a given multiple of it), or the half-width of an interval having a stated level of confidence. (see e.g. standard and Expanded uncertainty)
+- For qualitative (categorical?) Data uncertainty may be, for example, expressed by commission and omission (‘confusion matrix’) or overall errors.</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>- WGISS Shared Collection Lifecycle Management Principles for Earth Observation Data)</t>
+          <t>- modified from GUM, VIM4 :3.1, FIDUCEO, Notes added</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>- core</t>
-        </is>
-      </c>
+          <t>Verification</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Scientific or technical measurements, values calculated therefrom, observations, or facts that can be represented by numbers, tables, graphs, models, text, or symbols which are used as a basis for reasoning and further calculation.</t>
+          <t>The evaluation of whether or not a product, service, or system complies with a regulation requirement, specification, or imposed condition. It is often an internal Process.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>- WGISS Shared Collection Lifecycle Management Principles for Earth Observation Data)</t>
+          <t>- EU-US Land Imaging EO Collaboration</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>- base</t>
-        </is>
-      </c>
+          <t>Ancillary Data</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Property whose instances can be compared by ratio or only by order.</t>
+          <t>Data other than instrument measurements, originating in the instrument itself or from the satellite, required to perform processing of the Data. They include orbit Data, attitude Data, time Information, and spacecraft engineering Data, Calibration Data, Data quality Information, and Data from other instruments or earth system models.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>- gEOGlos(VIM4 Notes omitted)</t>
+          <t>- CEOS-ARD PFS template 20220302</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Uncertainty</t>
+          <t>Geolocating</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Non-negative parameter, associated with Data, which characterizes the dispersion of the values of a [Trait ]that could reasonably be attributed to a Phenomenon [by means of sensing or modelling].</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>- In case of quantitative(continuous) Data the uncertainty may be, for example, a standard deviation (or a given multiple of it), or the half-width of an interval having a stated level of confidence. (see e.g. standard and Expanded uncertainty)
-- For qualitative (categorical?) Data uncertainty may be, for example, expressed by commission and omission (‘confusion matrix’) or overall errors.</t>
-        </is>
-      </c>
+          <t>Determination of the geographic location of a &gt;=2D feature(?).</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>- modified from GUM, VIM4 :3.1, FIDUCEO, Notes added</t>
+          <t>- ISO 19130-1:2018, 3.36 (‘geopositioning’), modified</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ancillary Data</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>Entity</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>- base</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Data other than instrument measurements, originating in the instrument itself or from the satellite, required to perform processing of the Data. They include orbit Data, attitude Data, time Information, and spacecraft engineering Data, Calibration Data, Data quality Information, and Data from other instruments or earth system models.</t>
+          <t>A government or business organization that is formed to conduct business or represent the government of the day.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CEOS Entities include Working Groups, Virtual Constellations, etc.</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>- CEOS-ARD PFS template 20220302</t>
+          <t>- WGISS Shared Collection Lifecycle Management Principles for Earth Observation Data)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>Georectifying</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Orthorectifying</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>External person, institution or system that consumes provided services.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Includes Data Access or Science and Service Exploitation Platforms provided by a payload data ground segment.</t>
-        </is>
-      </c>
+          <t>The correction of sample locations to achieve some sort of geometric regularity, e.g., a regular 2D geographic grid.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>- EO Data Stewardship Glossary)</t>
+          <t>- KCEO</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Entity</t>
+          <t>Characteristic</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -627,110 +615,89 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A government or business organization that is formed to conduct business or represent the government of the day.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CEOS Entities include Working Groups, Virtual Constellations, etc.</t>
-        </is>
-      </c>
+          <t>Abstraction of a Property of an Object or of a set of objects.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>- Characteristics are used for describing Concepts.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>- WGISS Shared Collection Lifecycle Management Principles for Earth Observation Data)</t>
+          <t>- ISO 1087-1:2000, 3.2.4; ISO 19146:2010(E); https://www.iso.org/standard/20057.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Instrument Data</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Data created by an instrument including scientific measurements and any engineering or ancillary data which may be included in the data packets.</t>
+          <t>A sort of Data acquired with an Uncertainty significantly lower (quantify?) than that of the Data it is being compared with.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>- [EO Data Stewardship Glossary](https://ceos.org/document_management/Working_Groups/WGISS/Interest_Groups/Data_Stewardship/White_Papers/EO-DataStewardshipGlossary.pdf)</t>
+          <t>- VIM?, modified</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Instrument Data</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A sort of Data acquired with an Uncertainty significantly lower (quantify?) than that of the Data it is being compared with.</t>
+          <t>Data created by an instrument including scientific measurements and any engineering or ancillary data which may be included in the data packets.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>- VIM?, modified</t>
+          <t>- [EO Data Stewardship Glossary](https://ceos.org/document_management/Working_Groups/WGISS/Interest_Groups/Data_Stewardship/White_Papers/EO-DataStewardshipGlossary.pdf)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Geolocating</t>
+          <t>Test term</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Determination of the geographic location of a &gt;=2D feature(?).</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>- ISO 19130-1:2018, 3.36 (‘geopositioning’), modified</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Test term</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
           <t>Second_definition_goes_here.</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>- here should be bullets
 - like this</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>- this is also bullets
 - like this</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>- KCEO (no link included, so no brackets)
 - [Website](https://en.wikipedia.org/wiki/Thai_script) ( if you have web references, just add the term goes into square [] brackets and the url into () normal brackets
@@ -741,129 +708,150 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>- base</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Property whose instances can be compared by ratio or only by order.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>- gEOGlos(VIM4 Notes omitted)</t>
+        </is>
+      </c>
+    </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Auxiliary Data</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Data required to perform processing of Sensor Data which is not obtained from the Sensor itself. Include: (a) Data provided by the spacecraft (e.g. orbit Position and velocity, attitude, instrument house-keeping Data, on-board time), (b) Data not available from on-board sources.</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>For EnMAP, this includes (a) Orbit files, attitude files, Calibration Data, instrument house-keeping Data, (b) atmospheric parameters, Reference images.</t>
-        </is>
-      </c>
+          <t>Source data that has been processed to a common set of requirements and organised into a form that allows immediate analysis and interoperability through time and with other collections.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>- ENMAP Glossary of Terms, https://www.enmap.org/Data/doc/EnMAP_Terms.pdf, 20210624
-- EO Data Stewardship Glossary)</t>
+          <t>- WGISS Shared Collection Lifecycle Management Principles for Earth Observation Data)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Validation</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>- core</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Validation aims to verify that the specified requirements are achieved or compliant. This involves comparing  mission products with representative Reference Data, considering various Observation conditions, ensuring the quality and Traceability of the Reference Data used.</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>- In this part of ISO 19159, the term validation is used in a limited sense and only relates to the validation of Calibration Data in order to control their change over time.</t>
-        </is>
-      </c>
+          <t>Scientific or technical measurements, values calculated therefrom, observations, or facts that can be represented by numbers, tables, graphs, models, text, or symbols which are used as a basis for reasoning and further calculation.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>- BIPM; QA4EO; ESA ?, modified</t>
+          <t>- WGISS Shared Collection Lifecycle Management Principles for Earth Observation Data)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Characteristic</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>- base</t>
-        </is>
-      </c>
+          <t>Validation</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Abstraction of a Property of an Object or of a set of objects.</t>
+          <t>Validation aims to verify that the specified requirements are achieved or compliant. This involves comparing  mission products with representative Reference Data, considering various Observation conditions, ensuring the quality and Traceability of the Reference Data used.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>- Characteristics are used for describing Concepts.</t>
+          <t>- In this part of ISO 19159, the term validation is used in a limited sense and only relates to the validation of Calibration Data in order to control their change over time.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>- ISO 1087-1:2000, 3.2.4; ISO 19146:2010(E); https://www.iso.org/standard/20057.html</t>
+          <t>- BIPM; QA4EO; ESA ?, modified</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Georectifying</t>
+          <t>User</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Orthorectifying</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>The correction of sample locations to achieve some sort of geometric regularity, e.g., a regular 2D geographic grid.</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>External person, institution or system that consumes provided services.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Includes Data Access or Science and Service Exploitation Platforms provided by a payload data ground segment.</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>- KCEO</t>
+          <t>- EO Data Stewardship Glossary)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Verification</t>
+          <t>Auxiliary Data</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The evaluation of whether or not a product, service, or system complies with a regulation requirement, specification, or imposed condition. It is often an internal Process.</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>Data required to perform processing of Sensor Data which is not obtained from the Sensor itself. Include: (a) Data provided by the spacecraft (e.g. orbit Position and velocity, attitude, instrument house-keeping Data, on-board time), (b) Data not available from on-board sources.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>For EnMAP, this includes (a) Orbit files, attitude files, Calibration Data, instrument house-keeping Data, (b) atmospheric parameters, Reference images.</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>- EU-US Land Imaging EO Collaboration</t>
+          <t>- ENMAP Glossary of Terms, https://www.enmap.org/Data/doc/EnMAP_Terms.pdf, 20210624
+- EO Data Stewardship Glossary)</t>
         </is>
       </c>
     </row>
